--- a/K2_r01_05/meas_setting_9C2_1st_LUT.xlsx
+++ b/K2_r01_05/meas_setting_9C2_1st_LUT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthineersapc-my.sharepoint.com/personal/inseop_hwang_siemens-healthineers_com/Documents/1_External Training/2_Python/PycharmProjects/AOP_ML/K2_r01_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8B134396-360F-41FA-A10F-24527A2111EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{8B134396-360F-41FA-A10F-24527A2111EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA4D812-877D-425A-9DB8-1232F9A0FCEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meas_setting_9C2_1st_LUT - 복사본" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="29">
   <si>
     <t>measSetComments</t>
   </si>
@@ -113,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1070,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC109" sqref="AC109"/>
+    <sheetView tabSelected="1" topLeftCell="L109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,6 +1172,12 @@
       <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -13880,6 +13897,16 @@
       <c r="AH121">
         <f t="shared" si="9"/>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AC122">
+        <f>AVERAGE(AC2:AC121)</f>
+        <v>0.82666666666666677</v>
+      </c>
+      <c r="AH122">
+        <f>AVERAGE(AH2:AH121)</f>
+        <v>0.5724999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.3">
